--- a/FSID_activatiecodes_200.xlsx
+++ b/FSID_activatiecodes_200.xlsx
@@ -7,8 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Codes" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Zoeken" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,2580 +425,4044 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I201"/>
+  <dimension ref="A1:F201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="22" customWidth="1" min="1" max="1"/>
-    <col width="10" customWidth="1" min="2" max="2"/>
-    <col width="22" customWidth="1" min="3" max="3"/>
-    <col width="28" customWidth="1" min="4" max="4"/>
-    <col width="12" customWidth="1" min="5" max="5"/>
-    <col width="18" customWidth="1" min="6" max="6"/>
-    <col width="14" customWidth="1" min="7" max="7"/>
-    <col width="28" customWidth="1" min="8" max="8"/>
-    <col width="30" customWidth="1" min="9" max="9"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Code</t>
+          <t>code</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Status</t>
+          <t>status</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Naam</t>
+          <t>toegewezen_aan</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Adres</t>
+          <t>aanvraag_datum</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Postcode</t>
+          <t>geactiveerd_op</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Plaats</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Telefoon</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>E-mail</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Notities</t>
+          <t>opmerking</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>FSID-HBTR-QJGF-5CBF</t>
+          <t>FSID-2026-0K01-DB7U-37SV-D7</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>FSID-PQBN-4Q6T-AL5X</t>
+          <t>FSID-2026-0N12-7NOD-FHTO-B0</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>FSID-TKPX-GF2G-YYSC</t>
+          <t>FSID-2026-0OP7-UUF1-WLLP-D5</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>FSID-7H2F-UZNE-CQUF</t>
+          <t>FSID-2026-0TRZ-0OMI-8HJ0-54</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>FSID-QG2T-7ZLZ-YPTE</t>
+          <t>FSID-2026-107J-L00X-IREX-BE</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>FSID-LRL7-2TQW-DQCW</t>
+          <t>FSID-2026-1NB6-FMNQ-OEVD-67</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>FSID-3TEP-WP93-7KSJ</t>
+          <t>FSID-2026-1RSJ-83KD-57CY-14</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>FSID-RS53-ZQJ9-FDHK</t>
+          <t>FSID-2026-1S7E-YLUB-8IU6-8B</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>FSID-L5E2-27SA-HTXH</t>
+          <t>FSID-2026-1ZAL-T8A9-QLUO-C9</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>FSID-U5L7-ASMG-VNKZ</t>
+          <t>FSID-2026-1ZWM-KRNZ-PF4U-32</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>FSID-LAW9-BHZV-RDRF</t>
+          <t>FSID-2026-25KO-4638-UIQU-8C</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>FSID-F9EJ-J8LS-5PNV</t>
+          <t>FSID-2026-2V1N-KF49-MF3K-37</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>FSID-3Z66-HRQE-XBQQ</t>
+          <t>FSID-2026-2VNE-Q9HT-1198-14</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>FSID-AEDQ-ECXE-RT9P</t>
+          <t>FSID-2026-2ZZW-KDI9-OBMQ-63</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>FSID-J8R8-4NGG-5Y54</t>
+          <t>FSID-2026-365L-1FW0-PS7W-AB</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>FSID-7DGD-3XGR-NN6J</t>
+          <t>FSID-2026-3B04-4R3E-H3N7-D7</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>FSID-5MT7-RE6G-DAFR</t>
+          <t>FSID-2026-3FOK-U91B-VG1D-8F</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>FSID-L498-P3DL-2A2S</t>
+          <t>FSID-2026-3SLB-DNSX-589O-F3</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>FSID-7U59-KNUP-DDWD</t>
+          <t>FSID-2026-45WA-AFE7-W6F7-0B</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>FSID-D8LD-FMEE-R3HR</t>
+          <t>FSID-2026-48VI-53KV-YQFT-8B</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>FSID-CF4W-SPWR-S3JV</t>
+          <t>FSID-2026-49HW-ER14-B9JV-9F</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>FSID-7WEA-7GEP-SJYE</t>
+          <t>FSID-2026-4HQN-UQ9C-Y1RC-C7</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>FSID-RZUL-6VAV-GJSH</t>
+          <t>FSID-2026-4I6K-VA0N-XEL0-88</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>FSID-GKTU-PXPS-9SDF</t>
+          <t>FSID-2026-4TWC-PBNL-3W3T-5D</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>FSID-5TCA-XJSL-65AH</t>
+          <t>FSID-2026-4VNB-TN4X-LCLX-1A</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>FSID-EKCZ-K5JC-VZCY</t>
+          <t>FSID-2026-54ED-D53E-M3VJ-BD</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>FSID-PRGY-4KRL-M4BM</t>
+          <t>FSID-2026-5BJU-V9PG-QA29-55</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>FSID-X4RT-LG2C-8QN7</t>
+          <t>FSID-2026-5MTY-R5VE-VGLE-88</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>FSID-YVQQ-BN3X-TETY</t>
+          <t>FSID-2026-5UWJ-37B5-1NGA-11</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>FSID-3XBH-SMSC-G5YW</t>
+          <t>FSID-2026-65U2-8KR7-O56C-6C</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>FSID-5H2N-SC5A-NZ5E</t>
+          <t>FSID-2026-68D2-3TLR-71SF-86</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>FSID-XWHV-V4W3-UJN4</t>
+          <t>FSID-2026-6A0Y-TALB-4PZ6-00</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>FSID-2MV3-AVUP-5W76</t>
+          <t>FSID-2026-6JCE-67SI-BF45-A9</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>FSID-6P8L-FUXF-RVQN</t>
+          <t>FSID-2026-6TM3-AAVT-VI0B-E4</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>FSID-KBCR-8E74-N293</t>
+          <t>FSID-2026-72KW-N4DB-FTHI-29</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>FSID-RKAG-5QM7-DRH7</t>
+          <t>FSID-2026-7N1B-U7PD-HDPJ-36</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>FSID-J7W6-56L8-6SRT</t>
+          <t>FSID-2026-7NJY-A9UO-5OZK-AB</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>FSID-9RT6-EURT-XWFJ</t>
+          <t>FSID-2026-7P1S-KS5Y-L3PI-AA</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>FSID-KQ2K-PE44-X74D</t>
+          <t>FSID-2026-7SCY-D95P-CQLT-75</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>FSID-P42B-28AY-V24Q</t>
+          <t>FSID-2026-7T8M-GGYX-QL8X-48</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>FSID-9QT5-9B2X-3L7J</t>
+          <t>FSID-2026-7W45-3RF4-SNDV-8E</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>FSID-B3BF-5J7M-DS2W</t>
+          <t>FSID-2026-7XTF-JL4Y-IZD4-46</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>FSID-P7WX-2T4S-F8BD</t>
+          <t>FSID-2026-805K-GHHC-776K-17</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>FSID-YQEC-BRNB-KRJ8</t>
+          <t>FSID-2026-8812-M8CM-7WI5-67</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>FSID-HP7S-ZLHL-VGBV</t>
+          <t>FSID-2026-8SVK-K14D-GP3C-20</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>FSID-23NE-RGVH-CY5Z</t>
+          <t>FSID-2026-8TG0-V1NO-EUSP-6C</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>FSID-EXA4-9G5Z-7K5M</t>
+          <t>FSID-2026-944B-99DZ-XGAU-A0</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>FSID-T875-TWRF-T6R7</t>
+          <t>FSID-2026-9J7M-U318-NWZA-9C</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>FSID-2XB9-WM9P-YSXT</t>
+          <t>FSID-2026-9JW7-IF5A-J4T3-D6</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>FSID-TANF-R49R-896B</t>
+          <t>FSID-2026-9QW1-TATN-RSG5-90</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>FSID-FUQ3-RVZ8-Y5XY</t>
+          <t>FSID-2026-9ROY-BIGE-NKJZ-03</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>FSID-7TVS-QHNW-HMNP</t>
+          <t>FSID-2026-A55G-33UB-ST05-AE</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>FSID-8TUG-NUQZ-MVAJ</t>
+          <t>FSID-2026-A7ZF-NBZG-7BK2-0D</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>FSID-TCDU-J9GA-U886</t>
+          <t>FSID-2026-AGXZ-JEXU-7367-8E</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>FSID-XMDS-8HE3-9EDK</t>
+          <t>FSID-2026-AHT4-JAV2-GU24-42</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>FSID-KVFR-H4Q2-66V5</t>
+          <t>FSID-2026-AKRC-MB21-94B1-29</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>FSID-VDGP-PSFL-RMEL</t>
+          <t>FSID-2026-ATDR-P0MD-ZOUH-25</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>FSID-A468-UCQU-U7EQ</t>
+          <t>FSID-2026-AVXC-4IAA-B862-D6</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>FSID-SN5H-QKTK-EDLV</t>
+          <t>FSID-2026-BGO6-W0AJ-T8TO-9F</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>FSID-U6H7-V3T9-6FC5</t>
+          <t>FSID-2026-BH6E-JTO4-R1MR-6A</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>FSID-WSBF-QBTC-M86T</t>
+          <t>FSID-2026-BIXW-P8TP-CKVJ-20</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>FSID-M59F-8Y4X-WGLX</t>
+          <t>FSID-2026-BQ58-GC30-NAMI-C0</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>FSID-49U3-C7FW-SWH3</t>
+          <t>FSID-2026-BSMI-QX8V-G8NG-0F</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>FSID-A74D-NZ96-DPTJ</t>
+          <t>FSID-2026-C73C-T7DO-P4RB-AC</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>FSID-U69H-BRLV-A4FQ</t>
+          <t>FSID-2026-C78C-OBVU-I35O-F7</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>FSID-H7HK-9UT4-88R7</t>
+          <t>FSID-2026-CI3O-KNUE-I30W-3E</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>FSID-K2NJ-ET4X-TAUV</t>
+          <t>FSID-2026-D9FR-TNYJ-8083-E0</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>FSID-9K68-YX27-WNR2</t>
+          <t>FSID-2026-DCIP-52AT-TWHG-97</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>FSID-Q4CW-822K-9CJX</t>
+          <t>FSID-2026-DNYZ-WL7X-12R1-E5</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>FSID-G6G7-AK4K-E8SX</t>
+          <t>FSID-2026-DOVD-3TQN-H7NL-03</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>FSID-3FX2-W9CE-RUQF</t>
+          <t>FSID-2026-DOVX-YAJV-XLAB-51</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>FSID-5GG6-LVBC-WDUY</t>
+          <t>FSID-2026-DTMB-CNR1-VNPC-A9</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>FSID-Z5KR-4MLM-F2R9</t>
+          <t>FSID-2026-DXMF-ADI9-1EF9-90</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr"/>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>FSID-KQ7S-7SA7-ULE6</t>
+          <t>FSID-2026-E2EZ-8H2A-ZUKN-82</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>FSID-YV5S-7VN2-8GR2</t>
+          <t>FSID-2026-E9RQ-4FQX-ULA3-33</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>FSID-YUUB-3TAD-9UQY</t>
+          <t>FSID-2026-ECFD-4WIF-4PND-BE</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr"/>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>FSID-QNSJ-GCV6-CZJF</t>
+          <t>FSID-2026-ETDJ-BOCL-9P5P-76</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr"/>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>FSID-UW4M-NJZT-LS8U</t>
+          <t>FSID-2026-F33N-430C-PHUP-F4</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr"/>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>FSID-XH7E-KQ3Z-F3AS</t>
+          <t>FSID-2026-F3Y9-YUP8-Q1P8-85</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr"/>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>FSID-H7ZS-2ZGQ-8BWQ</t>
+          <t>FSID-2026-F5DG-NFF7-3ABM-E9</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr"/>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>FSID-E7V4-HJCC-V9HG</t>
+          <t>FSID-2026-FCY2-JX4K-Z9BY-38</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr"/>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>FSID-RJ27-Z4K4-G94T</t>
+          <t>FSID-2026-FH9R-3CUD-CVM0-F1</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr"/>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>FSID-CZP6-6RZG-ZYD3</t>
+          <t>FSID-2026-FJA7-XN9V-QWOR-B9</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr"/>
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>FSID-TNH7-FPBD-XRJP</t>
+          <t>FSID-2026-FJVN-MKX1-G3SU-5E</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr"/>
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>FSID-EPPQ-XKAT-KJSM</t>
+          <t>FSID-2026-G0II-FG7O-LRDP-6C</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr"/>
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>FSID-HBJA-YRWB-MSDJ</t>
+          <t>FSID-2026-GF1P-HKOH-20YC-33</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr"/>
+      <c r="D87" t="inlineStr"/>
+      <c r="E87" t="inlineStr"/>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>FSID-4HE8-6ZG6-QCV7</t>
+          <t>FSID-2026-GMCH-WMXE-VMO2-0A</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr"/>
+      <c r="D88" t="inlineStr"/>
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>FSID-BD83-5G96-EFWK</t>
+          <t>FSID-2026-GS2B-SS82-8KZS-D2</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr"/>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>FSID-EJTW-2U75-GHP5</t>
+          <t>FSID-2026-GVT6-UOCP-5TMV-0F</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr"/>
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="inlineStr"/>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>FSID-6Q4X-734G-W5WS</t>
+          <t>FSID-2026-H5QT-QNWX-WIF0-59</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr"/>
+      <c r="D91" t="inlineStr"/>
+      <c r="E91" t="inlineStr"/>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>FSID-ZK8E-FFF5-GZJD</t>
+          <t>FSID-2026-HD2Y-54RE-8BF7-DA</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr"/>
+      <c r="D92" t="inlineStr"/>
+      <c r="E92" t="inlineStr"/>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>FSID-XH4Y-5DUV-YGPK</t>
+          <t>FSID-2026-HRA7-MIKV-LKYT-D8</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr"/>
+      <c r="D93" t="inlineStr"/>
+      <c r="E93" t="inlineStr"/>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>FSID-8QGY-ZHTQ-5BTB</t>
+          <t>FSID-2026-HYZE-LEWQ-ZLP2-ED</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr"/>
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>FSID-MTVX-YAMK-3EKB</t>
+          <t>FSID-2026-I8LF-WTUP-YAOU-0D</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr"/>
+      <c r="D95" t="inlineStr"/>
+      <c r="E95" t="inlineStr"/>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>FSID-FP24-7XLZ-VWFD</t>
+          <t>FSID-2026-IU0T-ILRE-TOIG-08</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr"/>
+      <c r="D96" t="inlineStr"/>
+      <c r="E96" t="inlineStr"/>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>FSID-KLDF-T659-64TP</t>
+          <t>FSID-2026-IXDQ-JD8X-IYRZ-40</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr"/>
+      <c r="D97" t="inlineStr"/>
+      <c r="E97" t="inlineStr"/>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>FSID-HY5H-U9VC-Q3DA</t>
+          <t>FSID-2026-J82R-SLYW-B5JE-EA</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr"/>
+      <c r="D98" t="inlineStr"/>
+      <c r="E98" t="inlineStr"/>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>FSID-PVPJ-SUWH-A95M</t>
+          <t>FSID-2026-JJK6-A266-WW2Z-CA</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr"/>
+      <c r="D99" t="inlineStr"/>
+      <c r="E99" t="inlineStr"/>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>FSID-J2QY-E3C5-B7EW</t>
+          <t>FSID-2026-JQ0P-8LVB-KBZI-83</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr"/>
+      <c r="D100" t="inlineStr"/>
+      <c r="E100" t="inlineStr"/>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>FSID-534U-H3BW-L7ZF</t>
+          <t>FSID-2026-JTH2-0L73-W04S-38</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr"/>
+      <c r="D101" t="inlineStr"/>
+      <c r="E101" t="inlineStr"/>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>FSID-5GR5-3F3V-XQXL</t>
+          <t>FSID-2026-JX9U-1LGL-NWA7-C1</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr"/>
+      <c r="D102" t="inlineStr"/>
+      <c r="E102" t="inlineStr"/>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>FSID-EHNY-YKRG-KSNM</t>
+          <t>FSID-2026-K0E3-H8U2-0KOM-EB</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr"/>
+      <c r="D103" t="inlineStr"/>
+      <c r="E103" t="inlineStr"/>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>FSID-KEM9-76WW-K6E8</t>
+          <t>FSID-2026-KARJ-H6M8-XKHM-5D</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr"/>
+      <c r="D104" t="inlineStr"/>
+      <c r="E104" t="inlineStr"/>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>FSID-6VTD-YEV7-6CDZ</t>
+          <t>FSID-2026-KHH2-SNSV-7Y8W-DE</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr"/>
+      <c r="D105" t="inlineStr"/>
+      <c r="E105" t="inlineStr"/>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>FSID-UEF2-7C6N-W8KD</t>
+          <t>FSID-2026-KKKX-M1XX-1GUJ-5B</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr"/>
+      <c r="D106" t="inlineStr"/>
+      <c r="E106" t="inlineStr"/>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>FSID-6GXF-MCR6-6LZZ</t>
+          <t>FSID-2026-KUH7-LK2G-E2FD-22</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr"/>
+      <c r="D107" t="inlineStr"/>
+      <c r="E107" t="inlineStr"/>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>FSID-U24X-DXEX-G2US</t>
+          <t>FSID-2026-L0V6-LV0A-NEE5-76</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr"/>
+      <c r="D108" t="inlineStr"/>
+      <c r="E108" t="inlineStr"/>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>FSID-KXFK-YV3J-FV2X</t>
+          <t>FSID-2026-L25Y-NVWZ-M41G-B7</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr"/>
+      <c r="D109" t="inlineStr"/>
+      <c r="E109" t="inlineStr"/>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>FSID-JF5Z-BZVM-PX9N</t>
+          <t>FSID-2026-L8VG-ZG88-85ZU-F9</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr"/>
+      <c r="D110" t="inlineStr"/>
+      <c r="E110" t="inlineStr"/>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>FSID-QJKE-UGCX-J2KL</t>
+          <t>FSID-2026-LFE2-C4L4-JA13-7F</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr"/>
+      <c r="D111" t="inlineStr"/>
+      <c r="E111" t="inlineStr"/>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>FSID-ML6C-4ZR6-U6QR</t>
+          <t>FSID-2026-LFSR-HP3T-M1T9-04</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr"/>
+      <c r="D112" t="inlineStr"/>
+      <c r="E112" t="inlineStr"/>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>FSID-V8NZ-67U2-4LNJ</t>
+          <t>FSID-2026-LIMU-CN1L-VCU8-70</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr"/>
+      <c r="D113" t="inlineStr"/>
+      <c r="E113" t="inlineStr"/>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>FSID-SD8Z-GHUF-LT6K</t>
+          <t>FSID-2026-LRPW-LHNS-U5YN-77</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr"/>
+      <c r="D114" t="inlineStr"/>
+      <c r="E114" t="inlineStr"/>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>FSID-5FQ6-YB4D-3ZR2</t>
+          <t>FSID-2026-M2N6-2QPL-LUKZ-73</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr"/>
+      <c r="D115" t="inlineStr"/>
+      <c r="E115" t="inlineStr"/>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>FSID-FZQB-WGXK-JCU8</t>
+          <t>FSID-2026-MK8M-5LC7-YYNU-42</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr"/>
+      <c r="D116" t="inlineStr"/>
+      <c r="E116" t="inlineStr"/>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>FSID-J86A-FBSP-K5HU</t>
+          <t>FSID-2026-MM2J-4RII-5XA7-4C</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>FSID-RVHD-R47E-H9BR</t>
+          <t>FSID-2026-MRHX-UYNM-LLE5-26</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>FSID-KU5A-YR4M-FZEB</t>
+          <t>FSID-2026-MVSL-K7CV-PC8G-3F</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr"/>
+      <c r="D119" t="inlineStr"/>
+      <c r="E119" t="inlineStr"/>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>FSID-28C2-ZSBY-EYRG</t>
+          <t>FSID-2026-MY8D-9YCP-GNJE-1D</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr"/>
+      <c r="D120" t="inlineStr"/>
+      <c r="E120" t="inlineStr"/>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>FSID-XJCY-XM78-MJE7</t>
+          <t>FSID-2026-N0TI-A11S-N2PK-40</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr"/>
+      <c r="D121" t="inlineStr"/>
+      <c r="E121" t="inlineStr"/>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>FSID-CUNC-NCWV-38SC</t>
+          <t>FSID-2026-N2DK-O7M0-TC3L-88</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr"/>
+      <c r="D122" t="inlineStr"/>
+      <c r="E122" t="inlineStr"/>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>FSID-NUYD-XTHZ-5362</t>
+          <t>FSID-2026-N4HX-USBZ-IMCL-BE</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr"/>
+      <c r="D123" t="inlineStr"/>
+      <c r="E123" t="inlineStr"/>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>FSID-XM99-ZTF5-F5MU</t>
+          <t>FSID-2026-N5O1-LS7W-2B0N-FA</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr"/>
+      <c r="D124" t="inlineStr"/>
+      <c r="E124" t="inlineStr"/>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>FSID-WGFW-UV65-L6Y6</t>
+          <t>FSID-2026-N9XI-5AAH-ISMK-C6</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr"/>
+      <c r="D125" t="inlineStr"/>
+      <c r="E125" t="inlineStr"/>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>FSID-CY5T-DE3Z-LBK6</t>
+          <t>FSID-2026-NEP4-ZXBR-W292-EA</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr"/>
+      <c r="D126" t="inlineStr"/>
+      <c r="E126" t="inlineStr"/>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>FSID-CJER-ZZ2C-K6ZZ</t>
+          <t>FSID-2026-NIF7-F6BQ-E413-B9</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr"/>
+      <c r="D127" t="inlineStr"/>
+      <c r="E127" t="inlineStr"/>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>FSID-6EJZ-3WTR-HBM9</t>
+          <t>FSID-2026-NLC3-K7QQ-7JEU-A1</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr"/>
+      <c r="D128" t="inlineStr"/>
+      <c r="E128" t="inlineStr"/>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>FSID-2HSS-6PU9-NHJE</t>
+          <t>FSID-2026-NM4K-RBMT-7ZK1-81</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr"/>
+      <c r="D129" t="inlineStr"/>
+      <c r="E129" t="inlineStr"/>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>FSID-6M6F-WYEU-VLMZ</t>
+          <t>FSID-2026-NQ41-HHLC-QM65-43</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr"/>
+      <c r="D130" t="inlineStr"/>
+      <c r="E130" t="inlineStr"/>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>FSID-QHNJ-R9BZ-Z7JF</t>
+          <t>FSID-2026-NQB1-CQTR-3DD7-0E</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr"/>
+      <c r="D131" t="inlineStr"/>
+      <c r="E131" t="inlineStr"/>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>FSID-EV38-44EJ-WE67</t>
+          <t>FSID-2026-NVZT-L4LY-K05B-45</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr"/>
+      <c r="D132" t="inlineStr"/>
+      <c r="E132" t="inlineStr"/>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>FSID-YJMJ-5DHK-VLLW</t>
+          <t>FSID-2026-O5KA-3S94-IP8X-83</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr"/>
+      <c r="D133" t="inlineStr"/>
+      <c r="E133" t="inlineStr"/>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>FSID-QYUF-SNTJ-VFLK</t>
+          <t>FSID-2026-O5X0-X3VH-HMMO-99</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr"/>
+      <c r="D134" t="inlineStr"/>
+      <c r="E134" t="inlineStr"/>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>FSID-LXCB-FCSP-4B9U</t>
+          <t>FSID-2026-OIG3-4MVU-1IK4-3D</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr"/>
+      <c r="D135" t="inlineStr"/>
+      <c r="E135" t="inlineStr"/>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>FSID-V8R3-V7ED-L648</t>
+          <t>FSID-2026-OIK3-TIH5-W9AD-A5</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr"/>
+      <c r="D136" t="inlineStr"/>
+      <c r="E136" t="inlineStr"/>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>FSID-7PXK-WWY3-JZGW</t>
+          <t>FSID-2026-OWYJ-276S-QE5D-61</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr"/>
+      <c r="D137" t="inlineStr"/>
+      <c r="E137" t="inlineStr"/>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>FSID-R7HT-6RKG-DU24</t>
+          <t>FSID-2026-OYDU-BPN5-TBL3-3B</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr"/>
+      <c r="D138" t="inlineStr"/>
+      <c r="E138" t="inlineStr"/>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>FSID-RLWW-NL97-9V9B</t>
+          <t>FSID-2026-P26D-8SPF-2AS4-49</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr"/>
+      <c r="D139" t="inlineStr"/>
+      <c r="E139" t="inlineStr"/>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>FSID-F37R-PYDD-U98U</t>
+          <t>FSID-2026-P7KQ-LQEL-0I7R-AD</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr"/>
+      <c r="D140" t="inlineStr"/>
+      <c r="E140" t="inlineStr"/>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>FSID-AG5J-SZ3Z-C3DN</t>
+          <t>FSID-2026-PQH9-0KLV-J7B9-3D</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr"/>
+      <c r="D141" t="inlineStr"/>
+      <c r="E141" t="inlineStr"/>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>FSID-ZUE2-6THJ-G3ZX</t>
+          <t>FSID-2026-PS6E-706E-0AVG-D3</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr"/>
+      <c r="D142" t="inlineStr"/>
+      <c r="E142" t="inlineStr"/>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>FSID-ZKN3-CCCJ-X87K</t>
+          <t>FSID-2026-Q757-N58I-CZ0E-29</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr"/>
+      <c r="D143" t="inlineStr"/>
+      <c r="E143" t="inlineStr"/>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>FSID-JWWL-3VX9-V8BZ</t>
+          <t>FSID-2026-QASZ-X2I9-B9XK-44</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr"/>
+      <c r="D144" t="inlineStr"/>
+      <c r="E144" t="inlineStr"/>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>FSID-XH4V-B8SQ-D8L2</t>
+          <t>FSID-2026-QVWF-GM8M-OQQC-D2</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr"/>
+      <c r="D145" t="inlineStr"/>
+      <c r="E145" t="inlineStr"/>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>FSID-KRCH-NB6W-4K4P</t>
+          <t>FSID-2026-QXRO-05VI-LE2A-79</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr"/>
+      <c r="D146" t="inlineStr"/>
+      <c r="E146" t="inlineStr"/>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>FSID-48DJ-PW82-WM7X</t>
+          <t>FSID-2026-R018-OAAM-4W2T-B6</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr"/>
+      <c r="D147" t="inlineStr"/>
+      <c r="E147" t="inlineStr"/>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>FSID-YS8N-RTVQ-VUP9</t>
+          <t>FSID-2026-RG1D-86EK-JJCP-82</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr"/>
+      <c r="D148" t="inlineStr"/>
+      <c r="E148" t="inlineStr"/>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>FSID-W8YT-UH23-YKUC</t>
+          <t>FSID-2026-RLRP-33QY-CP2T-29</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr"/>
+      <c r="D149" t="inlineStr"/>
+      <c r="E149" t="inlineStr"/>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>FSID-UFY6-S8PN-TTJG</t>
+          <t>FSID-2026-RNXS-F22Z-WUO3-D5</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr"/>
+      <c r="D150" t="inlineStr"/>
+      <c r="E150" t="inlineStr"/>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>FSID-RRDQ-QDG4-X8GJ</t>
+          <t>FSID-2026-SDUE-Y6UK-Q5HJ-C8</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr"/>
+      <c r="D151" t="inlineStr"/>
+      <c r="E151" t="inlineStr"/>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>FSID-AL48-8NUW-UDFQ</t>
+          <t>FSID-2026-SK2M-9JMG-7FH2-D1</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr"/>
+      <c r="D152" t="inlineStr"/>
+      <c r="E152" t="inlineStr"/>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>FSID-CM4M-C39M-UCAV</t>
+          <t>FSID-2026-SR92-RJGL-EK4T-72</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr"/>
+      <c r="D153" t="inlineStr"/>
+      <c r="E153" t="inlineStr"/>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>FSID-GXU7-9J7T-NHXL</t>
+          <t>FSID-2026-SY8T-ZJ5J-94UI-EB</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr"/>
+      <c r="D154" t="inlineStr"/>
+      <c r="E154" t="inlineStr"/>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>FSID-7SMA-XUNM-35WF</t>
+          <t>FSID-2026-T2N2-TOPA-6JSU-77</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr"/>
+      <c r="D155" t="inlineStr"/>
+      <c r="E155" t="inlineStr"/>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>FSID-3GMJ-8WRA-S2R6</t>
+          <t>FSID-2026-T5AM-A6KL-5DXV-40</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr"/>
+      <c r="D156" t="inlineStr"/>
+      <c r="E156" t="inlineStr"/>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>FSID-TXVA-SZRD-H7VL</t>
+          <t>FSID-2026-T6ZL-0H9L-F9U4-34</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr"/>
+      <c r="D157" t="inlineStr"/>
+      <c r="E157" t="inlineStr"/>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>FSID-3VHU-ZQQJ-8K7Z</t>
+          <t>FSID-2026-TDXP-O2FL-APC8-04</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr"/>
+      <c r="D158" t="inlineStr"/>
+      <c r="E158" t="inlineStr"/>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>FSID-48PR-F6ZE-HDNK</t>
+          <t>FSID-2026-TKLY-3KG9-8KOH-8A</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr"/>
+      <c r="D159" t="inlineStr"/>
+      <c r="E159" t="inlineStr"/>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>FSID-LW6H-P9F6-D7J4</t>
+          <t>FSID-2026-TP90-XIQ5-D90N-B5</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr"/>
+      <c r="D160" t="inlineStr"/>
+      <c r="E160" t="inlineStr"/>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>FSID-7D7V-B3SA-PEC5</t>
+          <t>FSID-2026-TRU8-NLDP-2X7T-3C</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr"/>
+      <c r="D161" t="inlineStr"/>
+      <c r="E161" t="inlineStr"/>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>FSID-YEDE-8CU4-MJ4Z</t>
+          <t>FSID-2026-U5TS-UZC5-YYSO-E5</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr"/>
+      <c r="D162" t="inlineStr"/>
+      <c r="E162" t="inlineStr"/>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>FSID-2622-FJYH-M3JQ</t>
+          <t>FSID-2026-UAGK-J6JP-RS05-16</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr"/>
+      <c r="D163" t="inlineStr"/>
+      <c r="E163" t="inlineStr"/>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>FSID-ABV7-52QR-7YKT</t>
+          <t>FSID-2026-UBEF-BDJE-9MIO-BF</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr"/>
+      <c r="D164" t="inlineStr"/>
+      <c r="E164" t="inlineStr"/>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>FSID-NHC4-BRPE-GC6D</t>
+          <t>FSID-2026-UGTN-WXI5-WDWV-C3</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr"/>
+      <c r="D165" t="inlineStr"/>
+      <c r="E165" t="inlineStr"/>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>FSID-RC36-QPDJ-UQWW</t>
+          <t>FSID-2026-UHKI-OP7M-V5TQ-E8</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr"/>
+      <c r="D166" t="inlineStr"/>
+      <c r="E166" t="inlineStr"/>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>FSID-RVKQ-4VTD-M59D</t>
+          <t>FSID-2026-UJWT-VD5C-7RUL-20</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr"/>
+      <c r="D167" t="inlineStr"/>
+      <c r="E167" t="inlineStr"/>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>FSID-Y2W4-4KV2-M8RQ</t>
+          <t>FSID-2026-V2IJ-0I7G-UIEM-84</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr"/>
+      <c r="D168" t="inlineStr"/>
+      <c r="E168" t="inlineStr"/>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>FSID-VK7D-44J2-RSPX</t>
+          <t>FSID-2026-V37C-JMW5-N0AT-3E</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr"/>
+      <c r="D169" t="inlineStr"/>
+      <c r="E169" t="inlineStr"/>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>FSID-F6ZF-NDT2-CENP</t>
+          <t>FSID-2026-V4IM-LR4P-GLED-25</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr"/>
+      <c r="D170" t="inlineStr"/>
+      <c r="E170" t="inlineStr"/>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>FSID-8PXV-APNH-8RP3</t>
+          <t>FSID-2026-VHUF-94L1-SODG-20</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr"/>
+      <c r="D171" t="inlineStr"/>
+      <c r="E171" t="inlineStr"/>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>FSID-RWU2-7YVS-Z97G</t>
+          <t>FSID-2026-VK0C-10Y9-FF20-C8</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr"/>
+      <c r="D172" t="inlineStr"/>
+      <c r="E172" t="inlineStr"/>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>FSID-8WPZ-W4CQ-KBS4</t>
+          <t>FSID-2026-VKSS-LCXA-39T6-6E</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr"/>
+      <c r="D173" t="inlineStr"/>
+      <c r="E173" t="inlineStr"/>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>FSID-UKNX-Q2R9-XS99</t>
+          <t>FSID-2026-VMF0-ZPI4-1DV2-67</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr"/>
+      <c r="D174" t="inlineStr"/>
+      <c r="E174" t="inlineStr"/>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>FSID-7LYL-J9MD-CEDA</t>
+          <t>FSID-2026-VPDC-FVA1-GK6S-9D</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr"/>
+      <c r="D175" t="inlineStr"/>
+      <c r="E175" t="inlineStr"/>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>FSID-4JQE-KAP7-ZD89</t>
+          <t>FSID-2026-W1IW-BW9C-HVVN-D1</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr"/>
+      <c r="D176" t="inlineStr"/>
+      <c r="E176" t="inlineStr"/>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>FSID-BA4A-BTUB-5MGG</t>
+          <t>FSID-2026-W2TW-9Y8S-6SXK-89</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr"/>
+      <c r="D177" t="inlineStr"/>
+      <c r="E177" t="inlineStr"/>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>FSID-KRNS-YT3F-Z37R</t>
+          <t>FSID-2026-WBL8-U9FM-KHOG-B2</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr"/>
+      <c r="D178" t="inlineStr"/>
+      <c r="E178" t="inlineStr"/>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>FSID-QVFC-F322-8DAL</t>
+          <t>FSID-2026-WIQS-1F2Y-8NKY-27</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr"/>
+      <c r="D179" t="inlineStr"/>
+      <c r="E179" t="inlineStr"/>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>FSID-F95X-GCQP-8TCE</t>
+          <t>FSID-2026-WIV6-93LG-KYA3-9F</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr"/>
+      <c r="D180" t="inlineStr"/>
+      <c r="E180" t="inlineStr"/>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>FSID-TCMW-BPK3-EVLR</t>
+          <t>FSID-2026-WOXX-D60G-JZGB-18</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr"/>
+      <c r="D181" t="inlineStr"/>
+      <c r="E181" t="inlineStr"/>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>FSID-2X2J-FYDG-5QEX</t>
+          <t>FSID-2026-WWHW-TSCC-GY8Y-BB</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr"/>
+      <c r="D182" t="inlineStr"/>
+      <c r="E182" t="inlineStr"/>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>FSID-3WBT-69QY-25M2</t>
+          <t>FSID-2026-WYFH-2FL6-XYYK-B7</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr"/>
+      <c r="D183" t="inlineStr"/>
+      <c r="E183" t="inlineStr"/>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>FSID-FURE-FTK2-K2WZ</t>
+          <t>FSID-2026-X1K8-H7JS-FHMN-43</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr"/>
+      <c r="D184" t="inlineStr"/>
+      <c r="E184" t="inlineStr"/>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>FSID-GFAV-6ZTG-JFM5</t>
+          <t>FSID-2026-X44A-CIHL-KBZ4-9B</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr"/>
+      <c r="D185" t="inlineStr"/>
+      <c r="E185" t="inlineStr"/>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>FSID-64GB-FYFW-2AU4</t>
+          <t>FSID-2026-XIRZ-Z7JK-IHST-BF</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr"/>
+      <c r="D186" t="inlineStr"/>
+      <c r="E186" t="inlineStr"/>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>FSID-2FRL-2LJT-VT9K</t>
+          <t>FSID-2026-XTZ2-RSH7-PUJP-40</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr"/>
+      <c r="D187" t="inlineStr"/>
+      <c r="E187" t="inlineStr"/>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>FSID-EL5T-4V8E-ZSR9</t>
+          <t>FSID-2026-XV39-Y1NG-QYU1-81</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr"/>
+      <c r="D188" t="inlineStr"/>
+      <c r="E188" t="inlineStr"/>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>FSID-N7GJ-VA3X-2X6X</t>
+          <t>FSID-2026-YEI9-GK9X-Q02Q-96</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr"/>
+      <c r="D189" t="inlineStr"/>
+      <c r="E189" t="inlineStr"/>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>FSID-5JVW-N8WM-3WU9</t>
+          <t>FSID-2026-YEVF-QT0P-CIO0-70</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr"/>
+      <c r="D190" t="inlineStr"/>
+      <c r="E190" t="inlineStr"/>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>FSID-RW2T-3ZHN-MB7P</t>
+          <t>FSID-2026-YK1I-FI5T-S5QR-41</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr"/>
+      <c r="D191" t="inlineStr"/>
+      <c r="E191" t="inlineStr"/>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>FSID-6UE4-9JVR-SK52</t>
+          <t>FSID-2026-YLRL-IZ9F-9QVY-CA</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr"/>
+      <c r="D192" t="inlineStr"/>
+      <c r="E192" t="inlineStr"/>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>FSID-E683-4CZF-GRYL</t>
+          <t>FSID-2026-YV1T-GOPC-U241-D0</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr"/>
+      <c r="D193" t="inlineStr"/>
+      <c r="E193" t="inlineStr"/>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>FSID-C3X5-GAGS-QQ6Z</t>
+          <t>FSID-2026-Z0MO-XBGR-RALL-8D</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr"/>
+      <c r="D194" t="inlineStr"/>
+      <c r="E194" t="inlineStr"/>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>FSID-37KY-B8GU-4FHK</t>
+          <t>FSID-2026-Z4P4-VNK1-WL7H-AF</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr"/>
+      <c r="D195" t="inlineStr"/>
+      <c r="E195" t="inlineStr"/>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>FSID-YVX7-P8Y8-G66W</t>
+          <t>FSID-2026-ZAR0-4BZD-OYUR-26</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr"/>
+      <c r="D196" t="inlineStr"/>
+      <c r="E196" t="inlineStr"/>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>FSID-EVCH-BXGL-RMLX</t>
+          <t>FSID-2026-ZHZU-8JFG-7L6V-9A</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr"/>
+      <c r="D197" t="inlineStr"/>
+      <c r="E197" t="inlineStr"/>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>FSID-57Q3-MM53-BN65</t>
+          <t>FSID-2026-ZM6D-ZHB3-V9ZN-CA</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr"/>
+      <c r="D198" t="inlineStr"/>
+      <c r="E198" t="inlineStr"/>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>FSID-2APP-TEGM-ZWN7</t>
+          <t>FSID-2026-ZPHB-FQJQ-1EH3-C4</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr"/>
+      <c r="D199" t="inlineStr"/>
+      <c r="E199" t="inlineStr"/>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>FSID-HS9W-23HY-Y7MV</t>
+          <t>FSID-2026-ZSPC-1LJA-2SK6-A6</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>vrij</t>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr"/>
+      <c r="D200" t="inlineStr"/>
+      <c r="E200" t="inlineStr"/>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>FSID-FJWH-RVHM-ZK24</t>
+          <t>FSID-2026-ZYRA-RFUT-U02F-30</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>vrij</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="1">
-    <dataValidation sqref="B2 B3 B4 B5 B6 B7 B8 B9 B10 B11 B12 B13 B14 B15 B16 B17 B18 B19 B20 B21 B22 B23 B24 B25 B26 B27 B28 B29 B30 B31 B32 B33 B34 B35 B36 B37 B38 B39 B40 B41 B42 B43 B44 B45 B46 B47 B48 B49 B50 B51 B52 B53 B54 B55 B56 B57 B58 B59 B60 B61 B62 B63 B64 B65 B66 B67 B68 B69 B70 B71 B72 B73 B74 B75 B76 B77 B78 B79 B80 B81 B82 B83 B84 B85 B86 B87 B88 B89 B90 B91 B92 B93 B94 B95 B96 B97 B98 B99 B100 B101 B102 B103 B104 B105 B106 B107 B108 B109 B110 B111 B112 B113 B114 B115 B116 B117 B118 B119 B120 B121 B122 B123 B124 B125 B126 B127 B128 B129 B130 B131 B132 B133 B134 B135 B136 B137 B138 B139 B140 B141 B142 B143 B144 B145 B146 B147 B148 B149 B150 B151 B152 B153 B154 B155 B156 B157 B158 B159 B160 B161 B162 B163 B164 B165 B166 B167 B168 B169 B170 B171 B172 B173 B174 B175 B176 B177 B178 B179 B180 B181 B182 B183 B184 B185 B186 B187 B188 B189 B190 B191 B192 B193 B194 B195 B196 B197 B198 B199 B200 B201" showDropDown="1" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>"vrij,bezet"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="22" customWidth="1" min="1" max="1"/>
-    <col width="10" customWidth="1" min="2" max="2"/>
-    <col width="22" customWidth="1" min="3" max="3"/>
-    <col width="28" customWidth="1" min="4" max="4"/>
-    <col width="12" customWidth="1" min="5" max="5"/>
-    <col width="18" customWidth="1" min="6" max="6"/>
-    <col width="14" customWidth="1" min="7" max="7"/>
-    <col width="28" customWidth="1" min="8" max="8"/>
-    <col width="30" customWidth="1" min="9" max="9"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Zoek op naam</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Naam</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="B2" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Resultaten:</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Code</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Status</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Naam</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Adres</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Postcode</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Plaats</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Telefoon</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>E-mail</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Notities</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6">
-        <f>IFERROR(FILTER(Codes!A2:I201, Codes!C2:C201=Zoeken!B2, "Geen resultaten"), "Geen resultaten")</f>
-        <v/>
+          <t>beschikbaar</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr"/>
+      <c r="D201" t="inlineStr"/>
+      <c r="E201" t="inlineStr"/>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>jaarabonnement €99,00 ex btw/jaar</t>
+        </is>
       </c>
     </row>
   </sheetData>
